--- a/templates/AutomationOrg/RSTK-9522-Labor WO.xlsx
+++ b/templates/AutomationOrg/RSTK-9522-Labor WO.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD027E5-58A9-4731-BD18-C6A1195B131D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76730A05-FAC1-4E34-BC3C-BC08DE7A4FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
-    <sheet name="Add Operation" sheetId="7" r:id="rId2"/>
-    <sheet name="Time and Qty Booking" sheetId="2" r:id="rId3"/>
-    <sheet name="Time and Qty Booking Reversal" sheetId="5" r:id="rId4"/>
+    <sheet name="Time and Qty Booking" sheetId="2" r:id="rId2"/>
+    <sheet name="Time and Qty Booking Reversal" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Site</t>
   </si>
@@ -96,9 +95,6 @@
     <t>Labor</t>
   </si>
   <si>
-    <t>PK_Lbr Pay (Labor Pay)</t>
-  </si>
-  <si>
     <t>Txn Comments</t>
   </si>
   <si>
@@ -111,106 +107,19 @@
     <t>Override Employee Rate</t>
   </si>
   <si>
+    <t>Extract operations</t>
+  </si>
+  <si>
+    <t>Pro-labor Item (Labor only Item)</t>
+  </si>
+  <si>
+    <t>Add Operations?</t>
+  </si>
+  <si>
+    <t>10 (Default Labor - $5) (Qty Avail:0)</t>
+  </si>
+  <si>
     <t>Employee</t>
-  </si>
-  <si>
-    <t>Operation Type</t>
-  </si>
-  <si>
-    <t>Operation Number</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>Work Center</t>
-  </si>
-  <si>
-    <t>Assigned To</t>
-  </si>
-  <si>
-    <t>Setup Type</t>
-  </si>
-  <si>
-    <t>Setup Labor Grade</t>
-  </si>
-  <si>
-    <t>Setup Standard Hours</t>
-  </si>
-  <si>
-    <t>Run Type</t>
-  </si>
-  <si>
-    <t>Run Labor Grade</t>
-  </si>
-  <si>
-    <t>Run Standard Hours</t>
-  </si>
-  <si>
-    <t>Per Batch</t>
-  </si>
-  <si>
-    <t>LG 25</t>
-  </si>
-  <si>
-    <t>Standard Operation</t>
-  </si>
-  <si>
-    <t>Concurrent Seq</t>
-  </si>
-  <si>
-    <t>PK_PR21.98 (21.98)</t>
-  </si>
-  <si>
-    <t>PK_WC21.98 (WC 21.98)</t>
-  </si>
-  <si>
-    <t>Mayur Suryawanshi</t>
-  </si>
-  <si>
-    <t>Op 10</t>
-  </si>
-  <si>
-    <t>Op 20</t>
-  </si>
-  <si>
-    <t>Extract operations</t>
-  </si>
-  <si>
-    <t>Pro-labor Item (Labor only Item)</t>
-  </si>
-  <si>
-    <t>Add Operations?</t>
-  </si>
-  <si>
-    <t>10 (Default Labor - $5) (Qty Avail:0)</t>
-  </si>
-  <si>
-    <t>Pro-labor Item2 (Labor only Item2)</t>
-  </si>
-  <si>
-    <t>Concurrent Operation</t>
-  </si>
-  <si>
-    <t>Op 15</t>
-  </si>
-  <si>
-    <t>20 (Op 20) (Qty Avail:0)</t>
-  </si>
-  <si>
-    <t>10 (Op 10) (Qty Avail:1)</t>
-  </si>
-  <si>
-    <t>15 (Op 15) (Qty Avail:1)</t>
-  </si>
-  <si>
-    <t>16 (Op 15) (Qty Avail:1)</t>
-  </si>
-  <si>
-    <t>Allow Accept Indicator</t>
   </si>
 </sst>
 </file>
@@ -235,17 +144,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
       <b/>
       <sz val="7"/>
       <color rgb="FF4A4A56"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -272,8 +181,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +466,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,29 +495,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>51</v>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -616,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -642,272 +551,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F645892-6DEC-48BA-AEFF-9DA397370813}">
-  <dimension ref="A1:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAA8AA5-AAA5-4969-B3C7-F881B91DE17C}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAA8AA5-AAA5-4969-B3C7-F881B91DE17C}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
@@ -918,7 +572,7 @@
     <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -928,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -967,183 +621,76 @@
         <v>20</v>
       </c>
       <c r="O1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44537</v>
       </c>
       <c r="E2">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" t="s">
-        <v>25</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="3"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="3"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="3"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="3"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="3"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="3"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="3"/>
+      <c r="C15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1152,26 +699,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F64F68B-8B51-425D-AD6F-D9D782FBD866}">
-  <dimension ref="A1:D6"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A81EB6-AF09-4984-9359-B791FBC783BF}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -1182,41 +731,9 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6">
         <v>10</v>
       </c>
     </row>
